--- a/exported_data.xlsx
+++ b/exported_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -58,9 +58,6 @@
     <t>last_updated</t>
   </si>
   <si>
-    <t>E-123</t>
-  </si>
-  <si>
     <t>E-232</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>E-169696</t>
   </si>
   <si>
-    <t>Black and Blue Sapphire Earring with Shiny Glare</t>
-  </si>
-  <si>
     <t>Shiny Armor like Rose Gold, So Am I</t>
   </si>
   <si>
@@ -112,94 +106,82 @@
     <t>Gladiator</t>
   </si>
   <si>
+    <t>20g</t>
+  </si>
+  <si>
+    <t>123kg</t>
+  </si>
+  <si>
+    <t>300g</t>
+  </si>
+  <si>
+    <t>1312g</t>
+  </si>
+  <si>
+    <t>789g</t>
+  </si>
+  <si>
+    <t>12340g</t>
+  </si>
+  <si>
+    <t>1212g</t>
+  </si>
+  <si>
+    <t>24g</t>
+  </si>
+  <si>
+    <t>19g</t>
+  </si>
+  <si>
+    <t>10kg</t>
+  </si>
+  <si>
+    <t>12g</t>
+  </si>
+  <si>
+    <t>131g</t>
+  </si>
+  <si>
+    <t>123g</t>
+  </si>
+  <si>
+    <t>273g</t>
+  </si>
+  <si>
+    <t>1238g</t>
+  </si>
+  <si>
+    <t>1230g</t>
+  </si>
+  <si>
     <t>23g</t>
   </si>
   <si>
-    <t>20g</t>
-  </si>
-  <si>
-    <t>123kg</t>
-  </si>
-  <si>
-    <t>300g</t>
-  </si>
-  <si>
-    <t>1312g</t>
-  </si>
-  <si>
-    <t>789g</t>
-  </si>
-  <si>
-    <t>12340g</t>
-  </si>
-  <si>
-    <t>1212g</t>
-  </si>
-  <si>
-    <t>24g</t>
-  </si>
-  <si>
-    <t>18g</t>
-  </si>
-  <si>
-    <t>19g</t>
-  </si>
-  <si>
-    <t>10kg</t>
-  </si>
-  <si>
-    <t>12g</t>
-  </si>
-  <si>
-    <t>131g</t>
-  </si>
-  <si>
-    <t>123g</t>
-  </si>
-  <si>
-    <t>273g</t>
-  </si>
-  <si>
-    <t>1238g</t>
-  </si>
-  <si>
-    <t>1230g</t>
+    <t>Ruby</t>
   </si>
   <si>
     <t>Sapphire</t>
   </si>
   <si>
-    <t>Ruby</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
     <t>Garbage</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>2g</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>3g</t>
   </si>
   <si>
     <t>20kg</t>
   </si>
   <si>
-    <t>2024-11-04 13:43:21</t>
-  </si>
-  <si>
     <t>2024-11-03 14:16:59</t>
   </si>
   <si>
-    <t>2024-11-05 03:52:05</t>
+    <t>2024-11-05 04:47:38</t>
   </si>
   <si>
     <t>N-23220</t>
@@ -272,9 +254,6 @@
   </si>
   <si>
     <t>THB</t>
-  </si>
-  <si>
-    <t>MMK</t>
   </si>
   <si>
     <t>USD</t>
@@ -635,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,34 +663,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>1200000</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
         <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2">
-        <v>12000000</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -719,37 +701,31 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
       <c r="J3">
-        <v>1200000</v>
+        <v>1234000</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -757,31 +733,31 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
       </c>
       <c r="J4">
-        <v>1234000</v>
+        <v>1220000</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -789,31 +765,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5">
-        <v>1220000</v>
+        <v>39</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -821,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -841,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -861,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -881,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -901,39 +865,19 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -989,28 +933,28 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J2">
         <v>12000000</v>
@@ -1019,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1075,22 +1019,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1146,36 +1090,36 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J3">
         <v>12000</v>
@@ -1184,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1240,22 +1184,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1311,22 +1255,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1347,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1364,52 +1308,38 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/exported_data.xlsx
+++ b/exported_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -85,13 +85,16 @@
     <t>E-169696</t>
   </si>
   <si>
+    <t>E-211234</t>
+  </si>
+  <si>
     <t>Shiny Armor like Rose Gold, So Am I</t>
   </si>
   <si>
     <t>Aspirants Banana</t>
   </si>
   <si>
-    <t>Earring with Shiny Diamond Jia</t>
+    <t>Earring with THE BRIGHTEST DIAMOND</t>
   </si>
   <si>
     <t>dummy</t>
@@ -106,6 +109,9 @@
     <t>Gladiator</t>
   </si>
   <si>
+    <t>Kami Sama</t>
+  </si>
+  <si>
     <t>20g</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
     <t>24g</t>
   </si>
   <si>
+    <t>312g</t>
+  </si>
+  <si>
     <t>19g</t>
   </si>
   <si>
@@ -157,6 +166,9 @@
     <t>23g</t>
   </si>
   <si>
+    <t>132g</t>
+  </si>
+  <si>
     <t>Ruby</t>
   </si>
   <si>
@@ -181,7 +193,10 @@
     <t>2024-11-03 14:16:59</t>
   </si>
   <si>
-    <t>2024-11-05 04:47:38</t>
+    <t>2024-11-05 13:50:18</t>
+  </si>
+  <si>
+    <t>2024-11-05 13:51:17</t>
   </si>
   <si>
     <t>N-23220</t>
@@ -253,7 +268,7 @@
     <t>R-</t>
   </si>
   <si>
-    <t>THB</t>
+    <t>MMK</t>
   </si>
   <si>
     <t>USD</t>
@@ -614,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,28 +678,28 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>1200000</v>
@@ -693,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -701,22 +716,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J3">
         <v>1234000</v>
@@ -725,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -733,31 +748,31 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>1220000</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -765,19 +780,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -785,19 +800,19 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -805,19 +820,19 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -825,19 +840,19 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -845,19 +860,19 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -865,19 +880,42 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>321321312</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -933,28 +971,28 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J2">
         <v>12000000</v>
@@ -963,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1019,22 +1057,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1090,36 +1128,36 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J3">
         <v>12000</v>
@@ -1128,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1184,22 +1222,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1255,22 +1293,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1318,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1291,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1311,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1322,10 +1360,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1336,10 +1374,24 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
